--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_7_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_7_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.836554994326987, 3.3383348771703667]</t>
+          <t>[2.8369674245581034, 3.3379224469392503]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3492278301461713, 0.6895287800742871]</t>
+          <t>[0.3493915318417975, 0.6893650783786609]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1.882219122784079e-07</v>
+        <v>1.844462989009088e-07</v>
       </c>
       <c r="V2" t="n">
-        <v>1.882219122784079e-07</v>
+        <v>1.844462989009088e-07</v>
       </c>
       <c r="W2" t="n">
         <v>6.285965965966145</v>
